--- a/assets/import/contoh_penduduk.xlsx
+++ b/assets/import/contoh_penduduk.xlsx
@@ -335,7 +335,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ2" s="0" t="inlineStr">
+      <c r="AK2" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -437,7 +437,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ3" s="0" t="inlineStr">
+      <c r="AK3" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -539,7 +539,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ4" s="0" t="inlineStr">
+      <c r="AK4" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -641,7 +641,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ5" s="0" t="inlineStr">
+      <c r="AK5" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -743,7 +743,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ6" s="0" t="inlineStr">
+      <c r="AK6" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -845,7 +845,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ7" s="0" t="inlineStr">
+      <c r="AK7" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -947,7 +947,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ8" s="0" t="inlineStr">
+      <c r="AK8" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1049,7 +1049,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ9" s="0" t="inlineStr">
+      <c r="AK9" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1151,7 +1151,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ10" s="0" t="inlineStr">
+      <c r="AK10" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1253,7 +1253,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ11" s="0" t="inlineStr">
+      <c r="AK11" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1355,7 +1355,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ12" s="0" t="inlineStr">
+      <c r="AK12" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1457,7 +1457,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ13" s="0" t="inlineStr">
+      <c r="AK13" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1559,7 +1559,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ14" s="0" t="inlineStr">
+      <c r="AK14" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1661,7 +1661,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ15" s="0" t="inlineStr">
+      <c r="AK15" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1763,7 +1763,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ16" s="0" t="inlineStr">
+      <c r="AK16" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1865,7 +1865,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ17" s="0" t="inlineStr">
+      <c r="AK17" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1967,7 +1967,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ18" s="0" t="inlineStr">
+      <c r="AK18" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2069,7 +2069,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ19" s="0" t="inlineStr">
+      <c r="AK19" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2171,7 +2171,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ20" s="0" t="inlineStr">
+      <c r="AK20" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2273,7 +2273,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ21" s="0" t="inlineStr">
+      <c r="AK21" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2375,7 +2375,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ22" s="0" t="inlineStr">
+      <c r="AK22" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2477,7 +2477,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ23" s="0" t="inlineStr">
+      <c r="AK23" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2579,7 +2579,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ24" s="0" t="inlineStr">
+      <c r="AK24" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2681,7 +2681,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ25" s="0" t="inlineStr">
+      <c r="AK25" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2783,7 +2783,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="AJ26" s="0" t="inlineStr">
+      <c r="AK26" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2885,7 +2885,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ27" s="0" t="inlineStr">
+      <c r="AK27" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2987,7 +2987,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ28" s="0" t="inlineStr">
+      <c r="AK28" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3089,7 +3089,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ29" s="0" t="inlineStr">
+      <c r="AK29" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3191,7 +3191,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ30" s="0" t="inlineStr">
+      <c r="AK30" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3293,7 +3293,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ31" s="0" t="inlineStr">
+      <c r="AK31" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3395,7 +3395,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ32" s="0" t="inlineStr">
+      <c r="AK32" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3497,7 +3497,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ33" s="0" t="inlineStr">
+      <c r="AK33" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3599,7 +3599,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ34" s="0" t="inlineStr">
+      <c r="AK34" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3701,7 +3701,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ35" s="0" t="inlineStr">
+      <c r="AK35" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3803,7 +3803,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ36" s="0" t="inlineStr">
+      <c r="AK36" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3905,7 +3905,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ37" s="0" t="inlineStr">
+      <c r="AK37" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4007,7 +4007,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ38" s="0" t="inlineStr">
+      <c r="AK38" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4109,7 +4109,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ39" s="0" t="inlineStr">
+      <c r="AK39" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4211,7 +4211,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ40" s="0" t="inlineStr">
+      <c r="AK40" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4313,7 +4313,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ41" s="0" t="inlineStr">
+      <c r="AK41" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4415,7 +4415,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ42" s="0" t="inlineStr">
+      <c r="AK42" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4517,7 +4517,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ43" s="0" t="inlineStr">
+      <c r="AK43" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4619,7 +4619,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ44" s="0" t="inlineStr">
+      <c r="AK44" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4721,7 +4721,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ45" s="0" t="inlineStr">
+      <c r="AK45" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4823,7 +4823,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ46" s="0" t="inlineStr">
+      <c r="AK46" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4925,7 +4925,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ47" s="0" t="inlineStr">
+      <c r="AK47" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -5027,7 +5027,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ48" s="0" t="inlineStr">
+      <c r="AK48" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -5129,7 +5129,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ49" s="0" t="inlineStr">
+      <c r="AK49" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -5231,7 +5231,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ50" s="0" t="inlineStr">
+      <c r="AK50" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -5333,7 +5333,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ51" s="0" t="inlineStr">
+      <c r="AK51" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -5435,7 +5435,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ52" s="0" t="inlineStr">
+      <c r="AK52" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -5537,7 +5537,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ53" s="0" t="inlineStr">
+      <c r="AK53" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -5639,7 +5639,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ54" s="0" t="inlineStr">
+      <c r="AK54" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -5741,7 +5741,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ55" s="0" t="inlineStr">
+      <c r="AK55" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -5843,7 +5843,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="AJ56" s="0" t="inlineStr">
+      <c r="AK56" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -5945,7 +5945,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ57" s="0" t="inlineStr">
+      <c r="AK57" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -6047,7 +6047,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ58" s="0" t="inlineStr">
+      <c r="AK58" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -6149,7 +6149,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ59" s="0" t="inlineStr">
+      <c r="AK59" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -6251,7 +6251,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ60" s="0" t="inlineStr">
+      <c r="AK60" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -6353,7 +6353,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ61" s="0" t="inlineStr">
+      <c r="AK61" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -6455,7 +6455,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ62" s="0" t="inlineStr">
+      <c r="AK62" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -6557,7 +6557,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ63" s="0" t="inlineStr">
+      <c r="AK63" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -6659,7 +6659,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ64" s="0" t="inlineStr">
+      <c r="AK64" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -6761,7 +6761,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ65" s="0" t="inlineStr">
+      <c r="AK65" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -6863,7 +6863,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ66" s="0" t="inlineStr">
+      <c r="AK66" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -6965,7 +6965,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ67" s="0" t="inlineStr">
+      <c r="AK67" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -7067,7 +7067,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ68" s="0" t="inlineStr">
+      <c r="AK68" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -7169,7 +7169,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ69" s="0" t="inlineStr">
+      <c r="AK69" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -7271,7 +7271,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ70" s="0" t="inlineStr">
+      <c r="AK70" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -7373,7 +7373,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ71" s="0" t="inlineStr">
+      <c r="AK71" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -7475,7 +7475,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ72" s="0" t="inlineStr">
+      <c r="AK72" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -7577,7 +7577,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ73" s="0" t="inlineStr">
+      <c r="AK73" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -7679,7 +7679,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ74" s="0" t="inlineStr">
+      <c r="AK74" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -7781,7 +7781,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ75" s="0" t="inlineStr">
+      <c r="AK75" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -7883,7 +7883,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ76" s="0" t="inlineStr">
+      <c r="AK76" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -7985,7 +7985,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ77" s="0" t="inlineStr">
+      <c r="AK77" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -8087,7 +8087,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ78" s="0" t="inlineStr">
+      <c r="AK78" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -8189,7 +8189,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ79" s="0" t="inlineStr">
+      <c r="AK79" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -8291,7 +8291,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ80" s="0" t="inlineStr">
+      <c r="AK80" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -8393,7 +8393,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ81" s="0" t="inlineStr">
+      <c r="AK81" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -8495,7 +8495,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ82" s="0" t="inlineStr">
+      <c r="AK82" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -8597,7 +8597,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ83" s="0" t="inlineStr">
+      <c r="AK83" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -8699,7 +8699,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ84" s="0" t="inlineStr">
+      <c r="AK84" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -8801,7 +8801,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ85" s="0" t="inlineStr">
+      <c r="AK85" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -8903,7 +8903,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ86" s="0" t="inlineStr">
+      <c r="AK86" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -9005,7 +9005,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ87" s="0" t="inlineStr">
+      <c r="AK87" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -9107,7 +9107,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ88" s="0" t="inlineStr">
+      <c r="AK88" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -9209,7 +9209,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ89" s="0" t="inlineStr">
+      <c r="AK89" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -9311,7 +9311,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ90" s="0" t="inlineStr">
+      <c r="AK90" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -9413,7 +9413,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ91" s="0" t="inlineStr">
+      <c r="AK91" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -9515,7 +9515,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="AJ92" s="0" t="inlineStr">
+      <c r="AK92" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -9617,7 +9617,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ93" s="0" t="inlineStr">
+      <c r="AK93" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -9719,7 +9719,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="AJ94" s="0" t="inlineStr">
+      <c r="AK94" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -9821,7 +9821,7 @@
           <t>5</t>
         </is>
       </c>
-      <c r="AJ95" s="0" t="inlineStr">
+      <c r="AK95" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -9923,7 +9923,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ96" s="0" t="inlineStr">
+      <c r="AK96" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -10025,7 +10025,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ97" s="0" t="inlineStr">
+      <c r="AK97" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -10127,7 +10127,7 @@
           <t>13</t>
         </is>
       </c>
-      <c r="AJ98" s="0" t="inlineStr">
+      <c r="AK98" s="0" t="inlineStr">
         <is>
           <t>1</t>
         </is>

--- a/assets/import/contoh_penduduk.xlsx
+++ b/assets/import/contoh_penduduk.xlsx
@@ -118,16 +118,16 @@
     <t>Status Rekam</t>
   </si>
   <si>
+    <t>Alamat Sekarang</t>
+  </si>
+  <si>
+    <t>Status Dasar</t>
+  </si>
+  <si>
+    <t>Suku</t>
+  </si>
+  <si>
     <t>Tag ID Card</t>
-  </si>
-  <si>
-    <t>Alamat Sekarang</t>
-  </si>
-  <si>
-    <t>Status Dasar</t>
-  </si>
-  <si>
-    <t>Suku</t>
   </si>
   <si>
     <t>MANGSIT</t>
@@ -1938,16 +1938,16 @@
       <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       <c r="T2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       <c r="T3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
       <c r="T4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL4" s="1" t="s">
+      <c r="AK4" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
       <c r="T5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL5" s="1" t="s">
+      <c r="AK5" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
       <c r="T6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AK6" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       <c r="T7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL7" s="1" t="s">
+      <c r="AK7" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
       <c r="T8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL8" s="1" t="s">
+      <c r="AK8" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2443,7 +2443,7 @@
       <c r="T9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL9" s="1" t="s">
+      <c r="AK9" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       <c r="T10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL10" s="1" t="s">
+      <c r="AK10" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       <c r="T11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL11" s="1" t="s">
+      <c r="AK11" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       <c r="T12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL12" s="1" t="s">
+      <c r="AK12" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       <c r="T13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL13" s="1" t="s">
+      <c r="AK13" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2753,7 +2753,7 @@
       <c r="T14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL14" s="1" t="s">
+      <c r="AK14" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
       <c r="T15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL15" s="1" t="s">
+      <c r="AK15" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       <c r="T16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL16" s="1" t="s">
+      <c r="AK16" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2939,7 +2939,7 @@
       <c r="T17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL17" s="1" t="s">
+      <c r="AK17" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       <c r="T18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL18" s="1" t="s">
+      <c r="AK18" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3063,7 +3063,7 @@
       <c r="T19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL19" s="1" t="s">
+      <c r="AK19" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3125,7 +3125,7 @@
       <c r="T20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL20" s="1" t="s">
+      <c r="AK20" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       <c r="T21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL21" s="1" t="s">
+      <c r="AK21" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       <c r="T22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL22" s="1" t="s">
+      <c r="AK22" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       <c r="T23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL23" s="1" t="s">
+      <c r="AK23" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3373,7 +3373,7 @@
       <c r="T24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL24" s="1" t="s">
+      <c r="AK24" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
       <c r="T25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL25" s="1" t="s">
+      <c r="AK25" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       <c r="T26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AL26" s="1" t="s">
+      <c r="AK26" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3559,7 +3559,7 @@
       <c r="T27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL27" s="1" t="s">
+      <c r="AK27" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       <c r="T28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL28" s="1" t="s">
+      <c r="AK28" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3683,7 +3683,7 @@
       <c r="T29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL29" s="1" t="s">
+      <c r="AK29" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3745,7 +3745,7 @@
       <c r="T30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL30" s="1" t="s">
+      <c r="AK30" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
       <c r="T31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL31" s="1" t="s">
+      <c r="AK31" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
       <c r="T32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL32" s="1" t="s">
+      <c r="AK32" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       <c r="T33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL33" s="1" t="s">
+      <c r="AK33" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       <c r="T34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL34" s="1" t="s">
+      <c r="AK34" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4055,7 +4055,7 @@
       <c r="T35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL35" s="1" t="s">
+      <c r="AK35" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
       <c r="T36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL36" s="1" t="s">
+      <c r="AK36" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       <c r="T37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL37" s="1" t="s">
+      <c r="AK37" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
       <c r="T38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL38" s="1" t="s">
+      <c r="AK38" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4303,7 +4303,7 @@
       <c r="T39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL39" s="1" t="s">
+      <c r="AK39" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4365,7 +4365,7 @@
       <c r="T40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL40" s="1" t="s">
+      <c r="AK40" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4427,7 +4427,7 @@
       <c r="T41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL41" s="1" t="s">
+      <c r="AK41" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4489,7 +4489,7 @@
       <c r="T42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL42" s="1" t="s">
+      <c r="AK42" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
       <c r="T43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL43" s="1" t="s">
+      <c r="AK43" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4613,7 +4613,7 @@
       <c r="T44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL44" s="1" t="s">
+      <c r="AK44" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4675,7 +4675,7 @@
       <c r="T45" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL45" s="1" t="s">
+      <c r="AK45" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       <c r="T46" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL46" s="1" t="s">
+      <c r="AK46" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4799,7 +4799,7 @@
       <c r="T47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL47" s="1" t="s">
+      <c r="AK47" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4861,7 +4861,7 @@
       <c r="T48" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL48" s="1" t="s">
+      <c r="AK48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
       <c r="T49" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL49" s="1" t="s">
+      <c r="AK49" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4985,7 +4985,7 @@
       <c r="T50" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL50" s="1" t="s">
+      <c r="AK50" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5047,7 +5047,7 @@
       <c r="T51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL51" s="1" t="s">
+      <c r="AK51" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5109,7 +5109,7 @@
       <c r="T52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL52" s="1" t="s">
+      <c r="AK52" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5171,7 +5171,7 @@
       <c r="T53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL53" s="1" t="s">
+      <c r="AK53" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5233,7 +5233,7 @@
       <c r="T54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL54" s="1" t="s">
+      <c r="AK54" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5295,7 +5295,7 @@
       <c r="T55" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL55" s="1" t="s">
+      <c r="AK55" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       <c r="T56" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AL56" s="1" t="s">
+      <c r="AK56" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5419,7 +5419,7 @@
       <c r="T57" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL57" s="1" t="s">
+      <c r="AK57" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5481,7 +5481,7 @@
       <c r="T58" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL58" s="1" t="s">
+      <c r="AK58" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5543,7 +5543,7 @@
       <c r="T59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL59" s="1" t="s">
+      <c r="AK59" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5605,7 +5605,7 @@
       <c r="T60" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL60" s="1" t="s">
+      <c r="AK60" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5667,7 +5667,7 @@
       <c r="T61" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL61" s="1" t="s">
+      <c r="AK61" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5729,7 +5729,7 @@
       <c r="T62" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL62" s="1" t="s">
+      <c r="AK62" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5791,7 +5791,7 @@
       <c r="T63" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL63" s="1" t="s">
+      <c r="AK63" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5853,7 +5853,7 @@
       <c r="T64" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL64" s="1" t="s">
+      <c r="AK64" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5915,7 +5915,7 @@
       <c r="T65" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL65" s="1" t="s">
+      <c r="AK65" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5977,7 +5977,7 @@
       <c r="T66" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL66" s="1" t="s">
+      <c r="AK66" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6039,7 +6039,7 @@
       <c r="T67" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL67" s="1" t="s">
+      <c r="AK67" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6101,7 +6101,7 @@
       <c r="T68" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL68" s="1" t="s">
+      <c r="AK68" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6163,7 +6163,7 @@
       <c r="T69" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL69" s="1" t="s">
+      <c r="AK69" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6225,7 +6225,7 @@
       <c r="T70" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL70" s="1" t="s">
+      <c r="AK70" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6287,7 +6287,7 @@
       <c r="T71" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL71" s="1" t="s">
+      <c r="AK71" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6349,7 +6349,7 @@
       <c r="T72" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL72" s="1" t="s">
+      <c r="AK72" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6411,7 +6411,7 @@
       <c r="T73" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL73" s="1" t="s">
+      <c r="AK73" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6473,7 +6473,7 @@
       <c r="T74" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL74" s="1" t="s">
+      <c r="AK74" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6535,7 +6535,7 @@
       <c r="T75" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL75" s="1" t="s">
+      <c r="AK75" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6597,7 +6597,7 @@
       <c r="T76" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL76" s="1" t="s">
+      <c r="AK76" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6659,7 +6659,7 @@
       <c r="T77" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL77" s="1" t="s">
+      <c r="AK77" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6721,7 +6721,7 @@
       <c r="T78" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL78" s="1" t="s">
+      <c r="AK78" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6783,7 +6783,7 @@
       <c r="T79" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL79" s="1" t="s">
+      <c r="AK79" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6845,7 +6845,7 @@
       <c r="T80" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL80" s="1" t="s">
+      <c r="AK80" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6907,7 +6907,7 @@
       <c r="T81" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL81" s="1" t="s">
+      <c r="AK81" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6969,7 +6969,7 @@
       <c r="T82" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL82" s="1" t="s">
+      <c r="AK82" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7031,7 +7031,7 @@
       <c r="T83" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL83" s="1" t="s">
+      <c r="AK83" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7093,7 +7093,7 @@
       <c r="T84" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL84" s="1" t="s">
+      <c r="AK84" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7155,7 +7155,7 @@
       <c r="T85" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL85" s="1" t="s">
+      <c r="AK85" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7217,7 +7217,7 @@
       <c r="T86" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL86" s="1" t="s">
+      <c r="AK86" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7279,7 +7279,7 @@
       <c r="T87" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL87" s="1" t="s">
+      <c r="AK87" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7341,7 +7341,7 @@
       <c r="T88" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL88" s="1" t="s">
+      <c r="AK88" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7403,7 +7403,7 @@
       <c r="T89" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL89" s="1" t="s">
+      <c r="AK89" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7465,7 +7465,7 @@
       <c r="T90" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL90" s="1" t="s">
+      <c r="AK90" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7527,7 +7527,7 @@
       <c r="T91" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL91" s="1" t="s">
+      <c r="AK91" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7589,7 +7589,7 @@
       <c r="T92" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AL92" s="1" t="s">
+      <c r="AK92" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7651,7 +7651,7 @@
       <c r="T93" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL93" s="1" t="s">
+      <c r="AK93" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7713,7 +7713,7 @@
       <c r="T94" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AL94" s="1" t="s">
+      <c r="AK94" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7775,7 +7775,7 @@
       <c r="T95" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AL95" s="1" t="s">
+      <c r="AK95" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7837,7 +7837,7 @@
       <c r="T96" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL96" s="1" t="s">
+      <c r="AK96" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7899,7 +7899,7 @@
       <c r="T97" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL97" s="1" t="s">
+      <c r="AK97" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7961,7 +7961,7 @@
       <c r="T98" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL98" s="1" t="s">
+      <c r="AK98" s="1" t="s">
         <v>47</v>
       </c>
     </row>

--- a/assets/import/contoh_penduduk.xlsx
+++ b/assets/import/contoh_penduduk.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/premium/assets/import/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B2F79D-F499-0F4E-A3A9-52E99F175DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="523">
   <si>
     <t>Alamat</t>
   </si>
@@ -1574,19 +1583,26 @@
   </si>
   <si>
     <t>2012-03-20</t>
+  </si>
+  <si>
+    <t>Asuransi</t>
+  </si>
+  <si>
+    <t>Nomor Asuransi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -1596,37 +1612,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1816,23 +1839,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AO1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AG9" sqref="AG9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="39" width="8.56"/>
+    <col min="1" max="39" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1950,8 +1975,14 @@
       <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="AN1" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
@@ -2013,7 +2044,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
@@ -2075,7 +2106,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>39</v>
       </c>
@@ -2137,7 +2168,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>39</v>
       </c>
@@ -2199,7 +2230,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>65</v>
       </c>
@@ -2261,7 +2292,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,7 +2354,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>65</v>
       </c>
@@ -2385,7 +2416,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>65</v>
       </c>
@@ -2447,7 +2478,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>90</v>
       </c>
@@ -2509,7 +2540,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>90</v>
       </c>
@@ -2571,7 +2602,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>90</v>
       </c>
@@ -2633,7 +2664,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>107</v>
       </c>
@@ -2695,7 +2726,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>107</v>
       </c>
@@ -2757,7 +2788,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>107</v>
       </c>
@@ -2819,7 +2850,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>107</v>
       </c>
@@ -2881,7 +2912,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="2:37" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>65</v>
       </c>
@@ -2943,7 +2974,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="2:37" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>90</v>
       </c>
@@ -3005,7 +3036,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="2:37" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>90</v>
       </c>
@@ -3067,7 +3098,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="2:37" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>107</v>
       </c>
@@ -3129,7 +3160,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>107</v>
       </c>
@@ -3191,7 +3222,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>65</v>
       </c>
@@ -3253,7 +3284,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>65</v>
       </c>
@@ -3315,7 +3346,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>65</v>
       </c>
@@ -3377,7 +3408,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
@@ -3439,7 +3470,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>65</v>
       </c>
@@ -3501,7 +3532,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>39</v>
       </c>
@@ -3563,7 +3594,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>39</v>
       </c>
@@ -3625,7 +3656,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>39</v>
       </c>
@@ -3687,7 +3718,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>39</v>
       </c>
@@ -3749,7 +3780,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>39</v>
       </c>
@@ -3811,7 +3842,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>39</v>
       </c>
@@ -3873,7 +3904,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>107</v>
       </c>
@@ -3935,7 +3966,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>107</v>
       </c>
@@ -3997,7 +4028,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>107</v>
       </c>
@@ -4059,7 +4090,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>65</v>
       </c>
@@ -4121,7 +4152,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>65</v>
       </c>
@@ -4183,7 +4214,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>65</v>
       </c>
@@ -4245,7 +4276,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>90</v>
       </c>
@@ -4307,7 +4338,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>65</v>
       </c>
@@ -4369,7 +4400,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>65</v>
       </c>
@@ -4431,7 +4462,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>65</v>
       </c>
@@ -4493,7 +4524,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>90</v>
       </c>
@@ -4555,7 +4586,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>90</v>
       </c>
@@ -4617,7 +4648,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>90</v>
       </c>
@@ -4679,7 +4710,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>107</v>
       </c>
@@ -4741,7 +4772,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>107</v>
       </c>
@@ -4803,7 +4834,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>107</v>
       </c>
@@ -4865,7 +4896,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>107</v>
       </c>
@@ -4927,7 +4958,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>107</v>
       </c>
@@ -4989,7 +5020,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>107</v>
       </c>
@@ -5051,7 +5082,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>65</v>
       </c>
@@ -5113,7 +5144,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>107</v>
       </c>
@@ -5175,7 +5206,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>107</v>
       </c>
@@ -5237,7 +5268,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>107</v>
       </c>
@@ -5299,7 +5330,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>65</v>
       </c>
@@ -5361,7 +5392,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>107</v>
       </c>
@@ -5423,7 +5454,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>107</v>
       </c>
@@ -5485,7 +5516,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>107</v>
       </c>
@@ -5547,7 +5578,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>65</v>
       </c>
@@ -5609,7 +5640,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>65</v>
       </c>
@@ -5671,7 +5702,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>107</v>
       </c>
@@ -5733,7 +5764,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>39</v>
       </c>
@@ -5795,7 +5826,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>39</v>
       </c>
@@ -5857,7 +5888,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>39</v>
       </c>
@@ -5919,7 +5950,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>39</v>
       </c>
@@ -5981,7 +6012,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>39</v>
       </c>
@@ -6043,7 +6074,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>39</v>
       </c>
@@ -6105,7 +6136,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>107</v>
       </c>
@@ -6167,7 +6198,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>107</v>
       </c>
@@ -6229,7 +6260,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>107</v>
       </c>
@@ -6291,7 +6322,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
         <v>107</v>
       </c>
@@ -6353,7 +6384,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>107</v>
       </c>
@@ -6415,7 +6446,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>107</v>
       </c>
@@ -6477,7 +6508,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>90</v>
       </c>
@@ -6539,7 +6570,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>90</v>
       </c>
@@ -6601,7 +6632,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>90</v>
       </c>
@@ -6663,7 +6694,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>39</v>
       </c>
@@ -6725,7 +6756,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>39</v>
       </c>
@@ -6787,7 +6818,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>39</v>
       </c>
@@ -6849,7 +6880,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>65</v>
       </c>
@@ -6911,7 +6942,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>65</v>
       </c>
@@ -6973,7 +7004,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
         <v>90</v>
       </c>
@@ -7035,7 +7066,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>90</v>
       </c>
@@ -7097,7 +7128,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
         <v>65</v>
       </c>
@@ -7159,7 +7190,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
         <v>65</v>
       </c>
@@ -7221,7 +7252,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
         <v>65</v>
       </c>
@@ -7283,7 +7314,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
         <v>65</v>
       </c>
@@ -7345,7 +7376,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
         <v>65</v>
       </c>
@@ -7407,7 +7438,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
         <v>65</v>
       </c>
@@ -7469,7 +7500,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
         <v>65</v>
       </c>
@@ -7531,7 +7562,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
         <v>65</v>
       </c>
@@ -7593,7 +7624,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
         <v>65</v>
       </c>
@@ -7655,7 +7686,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
         <v>65</v>
       </c>
@@ -7717,7 +7748,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
         <v>65</v>
       </c>
@@ -7779,7 +7810,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
         <v>65</v>
       </c>
@@ -7841,7 +7872,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
         <v>65</v>
       </c>
@@ -7903,7 +7934,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
         <v>65</v>
       </c>
@@ -7965,912 +7996,910 @@
         <v>47</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="99" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="2:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/import/contoh_penduduk.xlsx
+++ b/assets/import/contoh_penduduk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\open-desa\premium\assets\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT OPENDESA\OpenSID\assets\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F8BC1A-4420-4370-B97B-196FCC227883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D1560B-6567-4E6D-BB5D-7A587BD93687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1624,10 +1624,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1845,8 +1844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J50" workbookViewId="0">
-      <selection activeCell="R57" sqref="R57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1855,127 +1854,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>481</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>482</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>483</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>484</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>485</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>486</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>487</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>488</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>489</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>490</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>491</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>492</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>493</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" t="s">
         <v>494</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" t="s">
         <v>495</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" t="s">
         <v>496</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>497</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" t="s">
         <v>498</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" t="s">
         <v>499</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" t="s">
         <v>500</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" t="s">
         <v>501</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" t="s">
         <v>502</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" t="s">
         <v>503</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" t="s">
         <v>504</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" t="s">
         <v>505</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" t="s">
         <v>506</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" t="s">
         <v>507</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" t="s">
         <v>508</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" t="s">
         <v>509</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" t="s">
         <v>510</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" t="s">
         <v>511</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" t="s">
         <v>512</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" t="s">
         <v>513</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" t="s">
         <v>514</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" t="s">
         <v>515</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" t="s">
         <v>516</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" t="s">
         <v>517</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" t="s">
         <v>518</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" t="s">
         <v>519</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" t="s">
         <v>520</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" t="s">
         <v>521</v>
       </c>
     </row>

--- a/assets/import/contoh_penduduk.xlsx
+++ b/assets/import/contoh_penduduk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT OPENDESA\OpenSID\assets\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon-6.0.0\www\Desaku\assets\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D1560B-6567-4E6D-BB5D-7A587BD93687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4067203D-D2CB-4E2D-AB72-15218B92A35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="524">
   <si>
     <t>MANGSIT</t>
   </si>
@@ -1586,6 +1586,12 @@
   </si>
   <si>
     <t>no_asuransi</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lng</t>
   </si>
 </sst>
 </file>
@@ -1624,9 +1630,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1842,18 +1849,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO1000"/>
+  <dimension ref="A1:AQ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AP6" sqref="AP6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="39" width="8.5" customWidth="1"/>
+    <col min="42" max="42" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>481</v>
       </c>
@@ -1977,8 +1986,14 @@
       <c r="AO1" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="2" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2039,8 +2054,14 @@
       <c r="AK2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2101,8 +2122,14 @@
       <c r="AK3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP3" s="2">
+        <v>-8495339739996280</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>1.1605342939496E+16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2164,7 +2191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2226,7 +2253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
@@ -2288,7 +2315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
@@ -2350,7 +2377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -2412,7 +2439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,7 +2501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
@@ -2536,7 +2563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>51</v>
       </c>
@@ -2598,7 +2625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
@@ -2660,7 +2687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>68</v>
       </c>
@@ -2722,7 +2749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>68</v>
       </c>
@@ -2784,7 +2811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>68</v>
       </c>
@@ -2846,7 +2873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>68</v>
       </c>

--- a/assets/import/contoh_penduduk.xlsx
+++ b/assets/import/contoh_penduduk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT OPENDESA\OpenSID\assets\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D1560B-6567-4E6D-BB5D-7A587BD93687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328CCAC3-C24A-427E-863A-7EF1D9A4366A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="524">
   <si>
     <t>MANGSIT</t>
   </si>
@@ -1586,6 +1586,12 @@
   </si>
   <si>
     <t>no_asuransi</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lng</t>
   </si>
 </sst>
 </file>
@@ -1842,10 +1848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO1000"/>
+  <dimension ref="A1:AQ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AR1" sqref="AR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1853,7 +1859,7 @@
     <col min="1" max="39" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>481</v>
       </c>
@@ -1977,8 +1983,14 @@
       <c r="AO1" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="2" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2040,7 +2052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2102,7 +2114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2164,7 +2176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2226,7 +2238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
@@ -2288,7 +2300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
@@ -2350,7 +2362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -2412,7 +2424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,7 +2486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
@@ -2536,7 +2548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>51</v>
       </c>
@@ -2598,7 +2610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
@@ -2660,7 +2672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>68</v>
       </c>
@@ -2722,7 +2734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>68</v>
       </c>
@@ -2784,7 +2796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>68</v>
       </c>
@@ -2846,7 +2858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>68</v>
       </c>
